--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3746739.033189739</v>
+        <v>3850150.769153821</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7419187.842566053</v>
+        <v>7384158.121293297</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>237.4416321059441</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>242.7844357512413</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.71722355140965</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,13 +873,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>197.0781285422729</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>194.5727296124813</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>116.1324508043526</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.08454170880418</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>74.2511672348987</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>77.97736515780295</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>251.1855714996674</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012177</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>193.5743639407131</v>
       </c>
       <c r="U13" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>174.1038648891268</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>173.2052365248848</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>273.2361318359316</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>125.2193560244681</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>24.27150084979029</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>120.7871326503977</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>27.6842674365326</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>48.8549711274588</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541838</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>56.10180801516488</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>126.1348013633909</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>251.3952559653339</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>125.4250331806694</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>32.81060261324028</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>146.7151441592111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.76669086687</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.804173926458</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.804173926458</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906803</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.366530930992</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.8811108217975</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036486</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X4" t="n">
-        <v>941.3375521384687</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.5449729949386</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.8811108217975</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4720,7 +4722,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X7" t="n">
-        <v>906.604870307395</v>
+        <v>1017.603218505034</v>
       </c>
       <c r="Y7" t="n">
-        <v>807.5295756520372</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,13 +4804,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4817,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4826,10 +4828,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
         <v>3009.337405520489</v>
@@ -4838,16 +4840,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2345.979026139843</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.979026139843</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.4305777370295</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C10" t="n">
-        <v>478.4305777370295</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1170.28879174776</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>880.8716217107993</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>880.8716217107993</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.0790425672692</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>484.8243144841094</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>980.1499206998682</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>719.5738700011943</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>550.6376870732873</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>550.6376870732873</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2001.532884941392</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1712.45765828559</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1457.773170079703</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1168.356000042742</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>940.3664491447246</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>719.5738700011943</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2204.054890045666</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1984.453425068607</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1695.378198412805</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1440.693710206918</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1151.276540169957</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>923.2869892719397</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>702.4944101284095</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5540,13 +5542,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>2490.32382148308</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>2052.406834234631</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1797.722346028744</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.95525898292</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>889.0190760550126</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>738.9024366426769</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>590.9893430602838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>444.0993955623734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854707</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.396302956689</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.603723813159</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>2607.607030146069</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>2459.693936563676</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>2459.693936563676</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>2459.693936563676</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>3649.607527965604</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>3421.617977067587</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>3200.825397924057</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
         <v>2129.438138565707</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2140.394052542956</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168599</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>2884.999267498239</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>2884.999267498239</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>2734.882628085903</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>2586.96953450351</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>2586.96953450351</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>3804.847032406987</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3515.429862370026</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3287.440311472008</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3066.647732328478</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756265</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913852</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>951.777212765616</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7731,13 +7733,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
         <v>2129.438138565707</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>3228.789304425605</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>3059.853121497698</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>2909.736482085363</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>2761.823388502969</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856563</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>23.83108638657524</v>
       </c>
       <c r="U13" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>6.92242111251781</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>112.9792378643594</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>13.28686650065941</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>40.30478226780073</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>194.3131525023045</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>19.50758019582618</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>258.8387309000584</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>118.391849971169</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>161.3036423121234</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>35.12774237125714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>21.00892946589974</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>112.610445409691</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.6621649642</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.6621649642</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176757</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.725617677</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>1.004292034150029e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.004292034150029e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314479</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.0670231448</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
-      <c r="C4" t="n">
-        <v>90354.06702314476</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314474</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179339</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
@@ -26439,22 +26441,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488699</v>
+        <v>11167.0322517936</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488708</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-726517.027694455</v>
       </c>
       <c r="C6" t="n">
+        <v>602227.7180331378</v>
+      </c>
+      <c r="D6" t="n">
         <v>602227.7180331376</v>
-      </c>
-      <c r="D6" t="n">
-        <v>602227.7180331375</v>
       </c>
       <c r="E6" t="n">
         <v>349265.9108147001</v>
       </c>
       <c r="F6" t="n">
-        <v>674678.3726220551</v>
+        <v>674678.3726220558</v>
       </c>
       <c r="G6" t="n">
         <v>674678.3726220554</v>
       </c>
       <c r="H6" t="n">
+        <v>674678.3726220549</v>
+      </c>
+      <c r="I6" t="n">
+        <v>674678.3726220555</v>
+      </c>
+      <c r="J6" t="n">
+        <v>457147.1702247781</v>
+      </c>
+      <c r="K6" t="n">
+        <v>674678.3726220548</v>
+      </c>
+      <c r="L6" t="n">
         <v>674678.3726220551</v>
       </c>
-      <c r="I6" t="n">
-        <v>674678.3726220554</v>
-      </c>
-      <c r="J6" t="n">
-        <v>457147.1702247778</v>
-      </c>
-      <c r="K6" t="n">
-        <v>658766.0002552415</v>
-      </c>
-      <c r="L6" t="n">
-        <v>678193.7182488735</v>
-      </c>
       <c r="M6" t="n">
-        <v>593138.6903133629</v>
+        <v>589623.3446865435</v>
       </c>
       <c r="N6" t="n">
-        <v>678193.7182488748</v>
+        <v>674678.3726220555</v>
       </c>
       <c r="O6" t="n">
-        <v>678193.7182488746</v>
+        <v>674678.3726220552</v>
       </c>
       <c r="P6" t="n">
-        <v>674678.372622055</v>
+        <v>674678.3726220548</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.401455402293</v>
-      </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.255365042687537e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>1.255365042687537e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.255365042687537e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.255365042687537e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>1.255365042687537e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>145.2922095575365</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>139.1459343210205</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.11475663052765</v>
+        <v>16.14213605696557</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>184.8522415299888</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.6652090435723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>109.5772045846846</v>
       </c>
       <c r="Y7" t="n">
-        <v>120.5001116432906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>332.6248785068127</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>271.26360355961</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>113.4197768217114</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9520718241605834</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.255365042687537e-13</v>
       </c>
     </row>
     <row r="14">
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>7.5791225147744e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,31 +31837,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>381.6404378718164</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>572.8682992214867</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>398.1179220955526</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32725,7 +32727,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,10 +32797,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N24" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32965,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33023,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>398.1179220955534</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>263.7590256391499</v>
+        <v>489.2891832783074</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.754615566327</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>309.9424824173367</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33997,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>309.7666854143577</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,16 +34453,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>243.7989988974574</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>430.2720547770423</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295329</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>259.5635423156784</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558158</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N24" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4173135558165</v>
+        <v>357.9474711949741</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396407</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>167.3462379728923</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>171.2123056344834</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3850150.769153821</v>
+        <v>3846138.159139827</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.4416321059441</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>78.29684714663847</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.6898441249717</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991615</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>197.0781285422729</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>352.5331533067302</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>114.2656173771016</v>
       </c>
       <c r="X7" t="n">
-        <v>116.1324508043526</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>74.2511672348987</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>312.6345408042868</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>35.19569619650092</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>68.85005436466936</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012177</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>193.5743639407131</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
-        <v>174.1038648891268</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>273.2361318359316</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>24.27150084979029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.7871326503977</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>27.6842674365326</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695452</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>48.8549711274588</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>56.10180801516488</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>126.1348013633909</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>251.3952559653339</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
-        <v>125.4250331806694</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>32.81060261324028</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1178.820931986406</v>
+        <v>921.7704558796243</v>
       </c>
       <c r="C2" t="n">
-        <v>809.8584150459947</v>
+        <v>552.8079389392126</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>194.5422403324621</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>194.5422403324621</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>187.5967395832586</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416653</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484846</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046023</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676417</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>452.6479724696244</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>231.8553933260943</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033361</v>
+        <v>1535.524858594924</v>
       </c>
       <c r="D5" t="n">
-        <v>581.1420803965857</v>
+        <v>1177.259159988173</v>
       </c>
       <c r="E5" t="n">
-        <v>382.0732636872191</v>
+        <v>1177.259159988173</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4664,31 +4664,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>796.8106393615039</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>627.8744564335971</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
         <v>477.7578170212613</v>
@@ -4722,19 +4722,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1017.603218505034</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>796.8106393615039</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C8" t="n">
-        <v>552.8079389392149</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="D8" t="n">
-        <v>194.5422403324644</v>
+        <v>817.0352339990379</v>
       </c>
       <c r="E8" t="n">
-        <v>194.5422403324644</v>
+        <v>431.2469814007937</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>424.3014806515902</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="9">
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>270.9995076393842</v>
+        <v>917.6163259372726</v>
       </c>
       <c r="C10" t="n">
-        <v>102.0633247114773</v>
+        <v>748.6801430093657</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>598.5635035970299</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>450.6504100146368</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>303.7604625167264</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>136.0576258914454</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>136.0576258914454</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X10" t="n">
-        <v>452.6479724696239</v>
+        <v>1320.057369911042</v>
       </c>
       <c r="Y10" t="n">
-        <v>452.6479724696239</v>
+        <v>1099.264790767512</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>719.5738700011943</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>550.6376870732873</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.6376870732873</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908941</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908941</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2001.532884941392</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1712.45765828559</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1457.773170079703</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1168.356000042742</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>940.3664491447246</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>719.5738700011943</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2204.054890045666</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1984.453425068607</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.378198412805</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1440.693710206918</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1151.276540169957</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>923.2869892719397</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>702.4944101284095</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2233.355914590558</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2490.32382148308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>3087.702309109632</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
         <v>2129.438138565707</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>2757.723669558405</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>2607.607030146069</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>2459.693936563676</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>2459.693936563676</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2459.693936563676</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3031.88921499615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3649.607527965604</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3421.617977067587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3200.825397924057</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
@@ -6490,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558404</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>2708.375213874102</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.375213874102</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874102</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673038</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467151</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430191</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532174</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388644</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2140.394052542956</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1851.318825887154</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6922,34 +6922,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6964,13 +6964,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123001</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2884.999267498239</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2884.999267498239</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2734.882628085903</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>2586.96953450351</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.96953450351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3804.847032406987</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3515.429862370026</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3287.440311472008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3066.647732328478</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1179.766763663633</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>951.777212765616</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057155</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,19 +7657,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3228.789304425605</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>3059.853121497698</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>2909.736482085363</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>2761.823388502969</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467152</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>3449.581883569135</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>3228.789304425605</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>23.83108638657524</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
-        <v>6.92242111251781</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>13.28686650065941</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.3131525023045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>19.50758019582618</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>258.8387309000584</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>118.391849971169</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>161.3036423121234</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>126.0028419604371</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>35.12774237125714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
-        <v>21.00892946589974</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>112.610445409691</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>635907.6621649642</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>635907.6621649642</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635907.6621649642</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176757</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>1.004292034150029e-10</v>
+        <v>2.614644133386876e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.004292034150029e-10</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314492</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.0670231449</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179339</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26444,13 +26444,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726517.027694455</v>
+        <v>-726517.0276944545</v>
       </c>
       <c r="C6" t="n">
-        <v>602227.7180331378</v>
+        <v>602227.7180331375</v>
       </c>
       <c r="D6" t="n">
-        <v>602227.7180331376</v>
+        <v>602227.7180331375</v>
       </c>
       <c r="E6" t="n">
-        <v>349265.9108147001</v>
+        <v>348918.5315603428</v>
       </c>
       <c r="F6" t="n">
-        <v>674678.3726220558</v>
+        <v>674330.993367698</v>
       </c>
       <c r="G6" t="n">
-        <v>674678.3726220554</v>
+        <v>674330.9933676979</v>
       </c>
       <c r="H6" t="n">
-        <v>674678.3726220549</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="I6" t="n">
-        <v>674678.3726220555</v>
+        <v>674330.9933676982</v>
       </c>
       <c r="J6" t="n">
-        <v>457147.1702247781</v>
+        <v>456799.790970421</v>
       </c>
       <c r="K6" t="n">
-        <v>674678.3726220548</v>
+        <v>674330.9933676982</v>
       </c>
       <c r="L6" t="n">
-        <v>674678.3726220551</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="M6" t="n">
-        <v>589623.3446865435</v>
+        <v>589275.9654321865</v>
       </c>
       <c r="N6" t="n">
-        <v>674678.3726220555</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="O6" t="n">
-        <v>674678.3726220552</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="P6" t="n">
-        <v>674678.3726220548</v>
+        <v>674330.9933676982</v>
       </c>
     </row>
   </sheetData>
@@ -26712,16 +26712,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.255365042687537e-13</v>
+        <v>3.268305166733595e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.255365042687537e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.255365042687537e-13</v>
+        <v>3.268305166733595e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.2922095575365</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>332.624878506815</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.14213605696557</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>214.5414662356967</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>184.8522415299888</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>54.3428924349812</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>172.2573809594894</v>
       </c>
       <c r="X7" t="n">
-        <v>109.5772045846846</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>332.6248785068127</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>98.28718484916669</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>113.4197768217114</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>27.50236604516876</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.255365042687537e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>572.8682992214867</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32314,16 +32314,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>398.1179220955526</v>
+        <v>476.0648089385468</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>434.6640573992324</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32727,7 +32727,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32785,25 +32785,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>669.5976799347666</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>424.0909547148531</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>398.1179220955534</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33520,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33973,13 +33973,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,31 +34210,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
-        <v>508.374771698973</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>430.2720547770423</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295329</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35579,16 +35579,16 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>259.5635423156784</v>
+        <v>337.5104291586726</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>527.4636460127483</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>281.4947102704086</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37168,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,13 +37621,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8203919190988</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3846138.159139827</v>
+        <v>3847898.689442613</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>78.29684714663847</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>71.67037196991615</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>352.5331533067302</v>
+        <v>352.5331533067316</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>114.2656173771016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>142.6796928024438</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>312.6345408042868</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>10.90057693901024</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>68.85005436466936</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>177.0850116794033</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560554</v>
       </c>
     </row>
     <row r="15">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703275</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695452</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695258</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428217</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796243</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392126</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D2" t="n">
-        <v>194.5422403324621</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E2" t="n">
-        <v>194.5422403324621</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5967395832586</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1535.524858594924</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.259159988173</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E5" t="n">
-        <v>1177.259159988173</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796415</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,31 +4664,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1722.044275313594</v>
+        <v>1548.04692080906</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1320.057369911043</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.300932605788</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>1175.300932605788</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>817.0352339990379</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>431.2469814007937</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>424.3014806515902</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3314.595137832393</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3108.617390216615</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3108.617390216615</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>2777.554502873044</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.78584760293</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.90077266991</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.6163259372726</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>748.6801430093657</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>598.5635035970299</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>450.6504100146368</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>303.7604625167264</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0576258914454</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0576258914454</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911042</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.264790767512</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5041,22 +5041,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O15" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5600,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5834,25 +5834,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,40 +6457,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6788,7 +6788,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,13 +6949,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,49 +7156,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192179</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111674</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075767</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332383</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014775</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,16 +7241,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,10 +7490,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
         <v>776.1751066403293</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7666,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>40.32043864788494</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26316,40 +26316,40 @@
         <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977558</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.954454091901425e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.614644133386876e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314492</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231449</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179343</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26444,7 +26444,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179347</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
@@ -26453,7 +26453,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179364</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726517.0276944545</v>
+        <v>-726517.0276944549</v>
       </c>
       <c r="C6" t="n">
         <v>602227.7180331375</v>
       </c>
       <c r="D6" t="n">
-        <v>602227.7180331375</v>
+        <v>602227.7180331374</v>
       </c>
       <c r="E6" t="n">
-        <v>348918.5315603428</v>
+        <v>349231.172889264</v>
       </c>
       <c r="F6" t="n">
-        <v>674330.993367698</v>
+        <v>674643.634696619</v>
       </c>
       <c r="G6" t="n">
-        <v>674330.9933676979</v>
+        <v>674643.6346966202</v>
       </c>
       <c r="H6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="I6" t="n">
-        <v>674330.9933676982</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="J6" t="n">
-        <v>456799.790970421</v>
+        <v>457112.4322993419</v>
       </c>
       <c r="K6" t="n">
-        <v>674330.9933676982</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="L6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966194</v>
       </c>
       <c r="M6" t="n">
-        <v>589275.9654321865</v>
+        <v>589588.6067611077</v>
       </c>
       <c r="N6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966197</v>
       </c>
       <c r="O6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="P6" t="n">
-        <v>674330.9933676982</v>
+        <v>674643.6346966197</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,26 +26962,26 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483759</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.268305166733595e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>306.4732379112248</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>332.624878506815</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>214.5414662356967</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>54.3428924349812</v>
+        <v>54.34289243497983</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>172.2573809594894</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>75.90496054965104</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>98.28718484916669</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>98.28718484916558</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>27.50236604516876</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
     </row>
     <row r="15">
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.700062395888381e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>301.644515672455</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4402738502018</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>434.6640573992324</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33508,31 +33508,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806719</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280106</v>
       </c>
       <c r="P15" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5104291586726</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>300.6896499849021</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,7 +36925,7 @@
         <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236313101</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
